--- a/data/raw/investment dataset.xlsx
+++ b/data/raw/investment dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulsharratt/Documents/Hertie/Semester 3/06 - Master's Thesis/thesis_stf/data/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paul/Documents/08 - Hertie/thesis_stf/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73652407-4520-AA47-81F8-B1D949AB2B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C570A4E5-52AE-4044-A540-F3DD1746BE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2060" windowWidth="28560" windowHeight="18500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="28560" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="102">
   <si>
     <t>aevum GmbH (libxml2)</t>
   </si>
@@ -320,6 +320,15 @@
   </si>
   <si>
     <t>https://github.com/uutils/</t>
+  </si>
+  <si>
+    <t>https://github.com/w3c/</t>
+  </si>
+  <si>
+    <t>https://github.com/openjs-foundation/</t>
+  </si>
+  <si>
+    <t>(https://github.com/openmls/</t>
   </si>
 </sst>
 </file>
@@ -716,13 +725,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.83203125" customWidth="1"/>
+    <col min="1" max="1" width="73" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" customWidth="1"/>
     <col min="3" max="3" width="43.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" customWidth="1"/>
@@ -912,7 +921,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>64</v>
@@ -988,7 +997,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>67</v>
@@ -1066,7 +1075,7 @@
     </row>
     <row r="19" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>57</v>
@@ -1314,7 +1323,7 @@
     <hyperlink ref="A13" r:id="rId26" xr:uid="{9651994E-C15F-5546-802D-7771FDBE4717}"/>
     <hyperlink ref="A10" r:id="rId27" display="https://github.com/rustls ;" xr:uid="{8FE3076E-9C4E-6147-B256-0DF1CF50579A}"/>
     <hyperlink ref="A16" r:id="rId28" xr:uid="{D8D1C4E5-ECA0-2242-BF5A-72BA9B4830F5}"/>
-    <hyperlink ref="A15" r:id="rId29" display="https://github.com/openjs-foundation/" xr:uid="{91D2A953-3A91-974A-BFB6-1359F80B1EC7}"/>
+    <hyperlink ref="A15" r:id="rId29" xr:uid="{91D2A953-3A91-974A-BFB6-1359F80B1EC7}"/>
     <hyperlink ref="A12" r:id="rId30" xr:uid="{C62D0D7C-296F-474E-BFDB-A9B7159A3E50}"/>
     <hyperlink ref="A11" r:id="rId31" xr:uid="{D1BFA130-D1B3-F242-9957-944C74004C15}"/>
     <hyperlink ref="A9" r:id="rId32" xr:uid="{C92E0D14-053B-E743-BC24-E969A76EEFC4}"/>
